--- a/pred_ohlcv/54_21/2019-10-21 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>40560.31440000002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>44260.31440000002</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>39260.31440000002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>39416.85950000002</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>39032.24420000002</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>47072.27300000002</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>47062.43880000003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>47058.29890000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>47654.62410000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>45854.63360000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>47923.64790895524</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>45519.22300895525</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>44397.22300895525</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>78298.59370895525</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77040.28240895525</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>76853.38690895525</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>76953.38690895525</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>70598.29890895524</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>73019.96430895524</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>73097.77820895523</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>45330.62300895525</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>45368.04760895525</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>43526.77870895524</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>32052.48080895524</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>32078.48080895524</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>40560.31440000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>44260.31440000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>39260.31440000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>39416.85950000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>39032.24420000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>47072.27300000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>47076.42330000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>47062.43880000003</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>47058.29890000002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>47154.62410000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>47654.62410000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>45854.63360000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>49112.84620000002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>48483.94790895525</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>48483.94790895525</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>47070.04960895525</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>47923.64790895524</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>48593.07700895525</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>45519.22300895525</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>44397.22300895525</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>78298.59370895525</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>77045.90240895524</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>77035.15560895525</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>77040.28240895525</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>76853.38690895525</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>76953.38690895525</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>70598.29890895524</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>45298.56050895525</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>45330.62300895525</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>45368.04760895525</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>43526.77870895524</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>47515.05620895524</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>47552.48080895524</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>32052.48080895524</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>32078.48080895524</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
